--- a/src/test/resources/CorpusApiTest/en_hi_validateTerminology.xlsx
+++ b/src/test/resources/CorpusApiTest/en_hi_validateTerminology.xlsx
@@ -556,7 +556,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -564,7 +564,7 @@
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" customWidth="1"/>
     <col min="6" max="6" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
